--- a/Employee_Reports35/Edison Mendoza Rojas Q0505.xlsx
+++ b/Employee_Reports35/Edison Mendoza Rojas Q0505.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1512,11 +1512,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1561,11 +1561,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1610,11 +1610,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1659,11 +1659,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1708,11 +1708,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1757,11 +1757,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1794,11 +1794,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1843,11 +1843,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1892,11 +1892,11 @@
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I30" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="4" t="inlineStr">
@@ -1942,11 +1942,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1991,11 +1991,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2028,11 +2028,11 @@
         </is>
       </c>
       <c r="H33" s="5" t="n">
-        <v>-96</v>
+        <v>-97</v>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="5" t="inlineStr">
@@ -2068,20 +2068,20 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2025</t>
+          <t>22-Mar-2025</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2026</t>
+          <t>22-Mar-2026</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2117,20 +2117,20 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2025</t>
+          <t>21-Mar-2025</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>11-Mar-2026</t>
+          <t>21-Mar-2026</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2163,11 +2163,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2212,11 +2212,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2249,11 +2249,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2286,11 +2286,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">

--- a/Employee_Reports35/Edison Mendoza Rojas Q0505.xlsx
+++ b/Employee_Reports35/Edison Mendoza Rojas Q0505.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
@@ -572,20 +572,20 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>23-Sep-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>23-Sep-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>323</v>
+        <v>714</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,20 +621,20 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>31-Oct-2024</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>31-Oct-2026</t>
+          <t>21-Oct-2027</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>361</v>
+        <v>715</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,20 +719,20 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>22-Sep-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>22-Sep-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>322</v>
+        <v>714</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>29-Oct-2024</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>29-Oct-2026</t>
+          <t>21-Oct-2027</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>359</v>
+        <v>715</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,20 +964,20 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>25-Sep-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>25-Sep-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>325</v>
+        <v>714</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,20 +1013,20 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>01-Nov-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>01-Nov-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>362</v>
+        <v>714</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,20 +1062,20 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>20-Oct-2025</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2026</t>
+          <t>20-Oct-2027</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>358</v>
+        <v>714</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,20 +1209,20 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2024</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>28-Oct-2026</t>
+          <t>21-Oct-2027</t>
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>358</v>
+        <v>715</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Safety Circuits and Controls (AMH Trainings)</t>
+          <t>Diagnosis Of Beckoff Module And Troubleshooting Guide (Cargo Trainings)</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-004</t>
+          <t>LSME-CRG-M-012</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1454,20 +1454,20 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>17-Jun-2025</t>
+          <t>21-Oct-2025</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>17-Jun-2027</t>
+          <t>21-Oct-2027</t>
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>590</v>
+        <v>715</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Storage Retrieval Machine (AMH Trainings)</t>
+          <t>Safety Circuits and Controls (AMH Trainings)</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-005</t>
+          <t>LSME-AMH-M-004</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1503,20 +1503,20 @@
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>10-May-2025</t>
+          <t>17-Jun-2025</t>
         </is>
       </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>10-May-2027</t>
+          <t>17-Jun-2027</t>
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>552</v>
+        <v>589</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Chain and Roller conveyors (AMH Trainings)</t>
+          <t>Storage Retrieval Machine (AMH Trainings)</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-002</t>
+          <t>LSME-AMH-M-005</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1552,20 +1552,20 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>15-Apr-2025</t>
+          <t>10-May-2025</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>15-Apr-2027</t>
+          <t>10-May-2027</t>
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Sorting Transfer Vehicle (AMH Trainings)</t>
+          <t>Chain and Roller conveyors (AMH Trainings)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-006</t>
+          <t>LSME-AMH-M-002</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1601,20 +1601,20 @@
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>19-Jun-2025</t>
+          <t>15-Apr-2025</t>
         </is>
       </c>
       <c r="G24" s="3" t="inlineStr">
         <is>
-          <t>19-Jun-2027</t>
+          <t>15-Apr-2027</t>
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>592</v>
+        <v>526</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Logimat (AMH Trainings)</t>
+          <t>Sorting Transfer Vehicle (AMH Trainings)</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-010</t>
+          <t>LSME-AMH-M-006</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1650,20 +1650,20 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>11-May-2025</t>
+          <t>19-Jun-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>11-May-2027</t>
+          <t>19-Jun-2027</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Bin Transport System (AMH Trainings)</t>
+          <t>Logimat (AMH Trainings)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-013</t>
+          <t>LSME-AMH-M-010</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1699,20 +1699,20 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2025</t>
+          <t>11-May-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>27-Jul-2027</t>
+          <t>11-May-2027</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>630</v>
+        <v>552</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+          <t>Bin Transport System (AMH Trainings)</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>LSME-AMH-M-011</t>
+          <t>LSME-AMH-M-013</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1748,20 +1748,20 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2025</t>
+          <t>27-Jul-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>01-Jul-2027</t>
+          <t>27-Jul-2027</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1777,28 +1777,40 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>DEMAG JIB Crane Manual (AMH Trainings)</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="inlineStr"/>
+          <t>Electronic Hydraulic Press (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>AMH</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-AMH-M-011</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>EQUIPMENT MANUAL</t>
+        </is>
+      </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>19-Aug-2025</t>
+          <t>01-Jul-2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>19-Aug-2027</t>
+          <t>01-Jul-2027</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1814,147 +1826,134 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
+          <t>DEMAG JIB Crane Manual (AMH Trainings)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
+      <c r="E29" s="3" t="inlineStr"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2027</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
           <t>Foam Packing Machine (AMH Trainings)</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>AMH</t>
         </is>
       </c>
-      <c r="D29" s="3" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>LSME-AMH-M-012</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
-      <c r="F29" s="3" t="inlineStr">
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>19-Aug-2025</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>19-Aug-2027</t>
         </is>
       </c>
-      <c r="H29" s="3" t="n">
-        <v>653</v>
-      </c>
-      <c r="I29" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J29" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K29" s="3" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="H30" s="3" t="n">
+        <v>652</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D30" s="4" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>LSME-OHS-SOP-021</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F30" s="4" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>08-Dec-2024</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>08-Dec-2025</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I30" s="4" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J30" s="4" t="inlineStr">
+      <c r="H31" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
         <is>
           <t>EXPIRING SOON</t>
         </is>
       </c>
-      <c r="K30" s="4" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>Equipment Operation Procedure
-(SOP-031) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-031</t>
-        </is>
-      </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F31" s="3" t="inlineStr">
-        <is>
-          <t>19-Oct-2025</t>
-        </is>
-      </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>19-Oct-2026</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n">
-        <v>349</v>
-      </c>
-      <c r="I31" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K31" s="3" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -1962,134 +1961,135 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>19-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>19-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
           <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>LSME-CRG-SOP-028</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>19-Oct-2025</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>19-Oct-2026</t>
         </is>
       </c>
-      <c r="H32" s="3" t="n">
-        <v>349</v>
-      </c>
-      <c r="I32" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K32" s="3" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="H33" s="3" t="n">
+        <v>348</v>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>Endangered by Electricity A safety Training (SOPs)</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr"/>
-      <c r="D33" s="5" t="inlineStr"/>
-      <c r="E33" s="5" t="inlineStr"/>
-      <c r="F33" s="5" t="inlineStr">
+      <c r="C34" s="5" t="inlineStr"/>
+      <c r="D34" s="5" t="inlineStr"/>
+      <c r="E34" s="5" t="inlineStr"/>
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>30-Jul-2024</t>
         </is>
       </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>30-Jul-2025</t>
         </is>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>-97</v>
-      </c>
-      <c r="I33" s="5" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J33" s="5" t="inlineStr">
+      <c r="H34" s="5" t="n">
+        <v>-98</v>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="K33" s="5" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>IMS</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>LSME-IMS-SOP-021</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>22-Mar-2025</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>22-Mar-2026</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>138</v>
-      </c>
-      <c r="I34" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="inlineStr"/>
+      <c r="K34" s="5" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-018</t>
+          <t>LSME-IMS-SOP-021</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>21-Mar-2025</t>
+          <t>22-Mar-2025</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>21-Mar-2026</t>
+          <t>22-Mar-2026</t>
         </is>
       </c>
       <c r="H35" s="3" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2146,28 +2146,40 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>10-May-2025</t>
+          <t>21-Mar-2025</t>
         </is>
       </c>
       <c r="G36" s="3" t="inlineStr">
         <is>
-          <t>10-May-2026</t>
+          <t>21-Mar-2026</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2183,40 +2195,28 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>DFWH</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="inlineStr">
-        <is>
-          <t>LSME-QDF-SOP-003</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>07-May-2025</t>
+          <t>10-May-2025</t>
         </is>
       </c>
       <c r="G37" s="3" t="inlineStr">
         <is>
-          <t>07-May-2026</t>
+          <t>10-May-2026</t>
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2232,28 +2232,40 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr"/>
-      <c r="D38" s="3" t="inlineStr"/>
-      <c r="E38" s="3" t="inlineStr"/>
+          <t>Equipment Operation Procedure(QDF-SOP-003) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>DFWH</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>LSME-QDF-SOP-003</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2025</t>
+          <t>07-May-2025</t>
         </is>
       </c>
       <c r="G38" s="3" t="inlineStr">
         <is>
-          <t>18-Oct-2026</t>
+          <t>07-May-2026</t>
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2269,7 +2281,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>IS0 55001 (Other Trainings)</t>
+          <t>SOP for  Powered Roller Deck And ULD Aisle (SOPs)</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
@@ -2277,28 +2289,65 @@
       <c r="E39" s="3" t="inlineStr"/>
       <c r="F39" s="3" t="inlineStr">
         <is>
+          <t>18-Oct-2025</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>18-Oct-2026</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>347</v>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>IS0 55001 (Other Trainings)</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
           <t>05-Jul-2025</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>05-Jul-2027</t>
         </is>
       </c>
-      <c r="H39" s="3" t="n">
-        <v>608</v>
-      </c>
-      <c r="I39" s="3" t="inlineStr">
-        <is>
-          <t>03-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="n">
+        <v>607</v>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>04-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
